--- a/Technology/Software/Box.xlsx
+++ b/Technology/Software/Box.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4944462-65E0-4644-9289-061BDC0EA2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C2F8B-6199-0C48-A827-25AA8D5DD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1008,6 +1008,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,9 +1029,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,31 +1332,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
+            <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="67000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
+                <a:gs pos="48000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="97000"/>
+                    <a:lumOff val="3000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -1510,7 +1507,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1559,7 +1556,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2281,11 +2278,9 @@
     <v>Powered by Refinitiv</v>
     <v>34.979999999999997</v>
     <v>22.31</v>
-    <v>1.0081</v>
-    <v>0.11</v>
-    <v>4.0759999999999998E-3</v>
-    <v>-0.3</v>
-    <v>-1.107E-2</v>
+    <v>0.99890000000000001</v>
+    <v>-0.26</v>
+    <v>-9.3629999999999998E-3</v>
     <v>USD</v>
     <v>Box, Inc. provides a cloud content management platform that enables organizations of all sizes to securely manage cloud content while allowing easy, secure access and sharing of this content from anywhere, on any device. The Company’s Software-as-a-Service platform, users can collaborate on content both internally and with external parties, automate content-driven business processes, develop custom applications, and implement data protection, security and compliance features to comply with legal and regulatory requirements, internal policies and industry standards and regulations. Its platform integrates with enterprise business applications, and is compatible with multiple application environments, operating systems and devices, ensuring that workers can securely access their critical business content. Its box solution offers Web, mobile and desktop applications for cloud content management on a platform for developing custom applications, as well as industry-specific capabilities.</v>
     <v>2487</v>
@@ -2293,25 +2288,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>900 Jefferson Ave, REDWOOD CITY, CA, 94063 US</v>
-    <v>27.19</v>
+    <v>27.93</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.958333367969</v>
+    <v>45065.958333367969</v>
     <v>0</v>
-    <v>26.86</v>
-    <v>3910558000</v>
+    <v>27.49</v>
+    <v>3984960000</v>
     <v>BOX, INC.</v>
     <v>BOX, INC.</v>
-    <v>27</v>
-    <v>676.27160000000003</v>
-    <v>26.99</v>
-    <v>27.1</v>
-    <v>26.8</v>
-    <v>144301000</v>
+    <v>27.9</v>
+    <v>689.30089999999996</v>
+    <v>27.77</v>
+    <v>27.51</v>
+    <v>144855000</v>
     <v>BOX</v>
     <v>BOX, INC. (XNYS:BOX)</v>
-    <v>906558</v>
-    <v>1451895</v>
+    <v>822937</v>
+    <v>956809</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2343,8 +2337,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2365,7 +2357,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2382,7 +2373,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2393,16 +2384,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2468,19 +2456,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2525,9 +2507,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2535,9 +2514,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2898,11 +2874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N123" sqref="N123"/>
+      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3763,15 +3739,15 @@
       </c>
       <c r="S16" s="31">
         <f>T101/L3</f>
-        <v>3.9465744383241463</v>
+        <v>4.0216616845330488</v>
       </c>
       <c r="T16" s="31">
         <f>T101/L28</f>
-        <v>456.46760826426987</v>
+        <v>465.15232870316328</v>
       </c>
       <c r="U16" s="32">
         <f>T101/L106</f>
-        <v>13.677201155576075</v>
+        <v>13.937422617673599</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6361,10 +6337,10 @@
       <c r="L83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S83" s="59" t="s">
+      <c r="S83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="T83" s="60"/>
+      <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6403,10 +6379,10 @@
       <c r="L84" s="1">
         <v>-252000</v>
       </c>
-      <c r="S84" s="61" t="s">
+      <c r="S84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="T84" s="62"/>
+      <c r="T84" s="65"/>
     </row>
     <row r="85" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6816,10 +6792,10 @@
       <c r="L93" s="1">
         <v>-17312000</v>
       </c>
-      <c r="S93" s="61" t="s">
+      <c r="S93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="T93" s="62"/>
+      <c r="T93" s="65"/>
     </row>
     <row r="94" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6905,9 +6881,9 @@
       <c r="S95" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="T95" s="63" cm="1">
+      <c r="T95" s="57" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.0081</v>
+        <v>0.99890000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6996,7 +6972,7 @@
       </c>
       <c r="T97" s="37">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.4348704999999996E-2</v>
+        <v>8.3952645000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7036,10 +7012,10 @@
       <c r="L98" s="1">
         <v>-15057000</v>
       </c>
-      <c r="S98" s="61" t="s">
+      <c r="S98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="T98" s="62"/>
+      <c r="T98" s="65"/>
     </row>
     <row r="99" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7128,7 +7104,7 @@
       </c>
       <c r="T100" s="35">
         <f>T99/T103</f>
-        <v>0.1261283849313293</v>
+        <v>0.12406564232240774</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7173,7 +7149,7 @@
       </c>
       <c r="T101" s="50" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3910558000</v>
+        <v>3984960000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7218,7 +7194,7 @@
       </c>
       <c r="T102" s="35">
         <f>T101/T103</f>
-        <v>0.87387161506867073</v>
+        <v>0.8759343576775922</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7263,7 +7239,7 @@
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>4474980000</v>
+        <v>4549382000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7303,10 +7279,10 @@
       <c r="L104" s="11">
         <v>429040000</v>
       </c>
-      <c r="S104" s="61" t="s">
+      <c r="S104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="T104" s="62"/>
+      <c r="T104" s="65"/>
     </row>
     <row r="105" spans="1:20" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7364,7 +7340,7 @@
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>7.413315637891886E-2</v>
+        <v>7.3953302058245338E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7404,23 +7380,23 @@
       <c r="L106" s="1">
         <v>285918000</v>
       </c>
-      <c r="M106" s="64">
+      <c r="M106" s="58">
         <f>L106*(1+$T$106)</f>
         <v>317936608.60614496</v>
       </c>
-      <c r="N106" s="64">
+      <c r="N106" s="58">
         <f t="shared" ref="N106:Q106" si="27">M106*(1+$T$106)</f>
         <v>353540830.20997983</v>
       </c>
-      <c r="O106" s="64">
+      <c r="O106" s="58">
         <f t="shared" si="27"/>
         <v>393132200.703565</v>
       </c>
-      <c r="P106" s="64">
+      <c r="P106" s="58">
         <f t="shared" si="27"/>
         <v>437157222.0901159</v>
       </c>
-      <c r="Q106" s="64">
+      <c r="Q106" s="58">
         <f t="shared" si="27"/>
         <v>486112398.02675861</v>
       </c>
@@ -7454,7 +7430,7 @@
       <c r="P107" s="40"/>
       <c r="Q107" s="43">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>10141119453.73031</v>
+        <v>10178377903.590334</v>
       </c>
       <c r="R107" s="44" t="s">
         <v>148</v>
@@ -7485,7 +7461,7 @@
       </c>
       <c r="Q108" s="43">
         <f>Q107+Q106</f>
-        <v>10627231851.757069</v>
+        <v>10664490301.617092</v>
       </c>
       <c r="R108" s="44" t="s">
         <v>144</v>
@@ -7495,14 +7471,14 @@
       </c>
       <c r="T108" s="48">
         <f>T105</f>
-        <v>7.413315637891886E-2</v>
+        <v>7.3953302058245338E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="57" t="s">
+      <c r="M109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="N109" s="58"/>
+      <c r="N109" s="61"/>
     </row>
     <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="M110" s="49" t="s">
@@ -7510,7 +7486,7 @@
       </c>
       <c r="N110" s="50">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>8680450283.6830006</v>
+        <v>8713286943.1516342</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7537,7 +7513,7 @@
       </c>
       <c r="N113" s="50">
         <f>N110+N111-N112</f>
-        <v>8577276283.6830006</v>
+        <v>8610112943.1516342</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7555,16 +7531,16 @@
       </c>
       <c r="N115" s="53">
         <f>N113/N114</f>
-        <v>47.630306176467016</v>
+        <v>47.812650791770913</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
       <c r="M116" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="N116" s="65" cm="1">
+      <c r="N116" s="59" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>27.1</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7573,7 +7549,7 @@
       </c>
       <c r="N117" s="55">
         <f>N115/N116-1</f>
-        <v>0.75757587367036949</v>
+        <v>0.73800984339407161</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Box.xlsx
+++ b/Technology/Software/Box.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C2F8B-6199-0C48-A827-25AA8D5DD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAF99E-0407-6142-B8ED-61F6298CE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2278,9 +2278,11 @@
     <v>Powered by Refinitiv</v>
     <v>34.979999999999997</v>
     <v>22.31</v>
-    <v>0.99890000000000001</v>
-    <v>-0.26</v>
-    <v>-9.3629999999999998E-3</v>
+    <v>0.99960000000000004</v>
+    <v>0.5</v>
+    <v>1.8355E-2</v>
+    <v>0.26</v>
+    <v>9.3729999999999994E-3</v>
     <v>USD</v>
     <v>Box, Inc. provides a cloud content management platform that enables organizations of all sizes to securely manage cloud content while allowing easy, secure access and sharing of this content from anywhere, on any device. The Company’s Software-as-a-Service platform, users can collaborate on content both internally and with external parties, automate content-driven business processes, develop custom applications, and implement data protection, security and compliance features to comply with legal and regulatory requirements, internal policies and industry standards and regulations. Its platform integrates with enterprise business applications, and is compatible with multiple application environments, operating systems and devices, ensuring that workers can securely access their critical business content. Its box solution offers Web, mobile and desktop applications for cloud content management on a platform for developing custom applications, as well as industry-specific capabilities.</v>
     <v>2487</v>
@@ -2288,24 +2290,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>900 Jefferson Ave, REDWOOD CITY, CA, 94063 US</v>
-    <v>27.93</v>
+    <v>28.05</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.958333367969</v>
+    <v>45072.995087777344</v>
     <v>0</v>
-    <v>27.49</v>
-    <v>3984960000</v>
+    <v>27.34</v>
+    <v>4018277000</v>
     <v>BOX, INC.</v>
     <v>BOX, INC.</v>
-    <v>27.9</v>
-    <v>689.30089999999996</v>
-    <v>27.77</v>
-    <v>27.51</v>
+    <v>27.34</v>
+    <v>682.53570000000002</v>
+    <v>27.24</v>
+    <v>27.74</v>
+    <v>28</v>
     <v>144855000</v>
     <v>BOX</v>
     <v>BOX, INC. (XNYS:BOX)</v>
-    <v>822937</v>
-    <v>956809</v>
+    <v>1173223</v>
+    <v>1006112</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2337,6 +2340,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2357,6 +2362,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2373,7 +2379,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2384,13 +2390,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2456,13 +2465,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2507,6 +2522,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2514,6 +2532,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2874,11 +2895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K100" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
+      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3739,15 +3760,15 @@
       </c>
       <c r="S16" s="31">
         <f>T101/L3</f>
-        <v>4.0216616845330488</v>
+        <v>4.0552855357997082</v>
       </c>
       <c r="T16" s="31">
         <f>T101/L28</f>
-        <v>465.15232870316328</v>
+        <v>469.04132134936384</v>
       </c>
       <c r="U16" s="32">
         <f>T101/L106</f>
-        <v>13.937422617673599</v>
+        <v>14.053949034338517</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6883,7 +6904,7 @@
       </c>
       <c r="T95" s="57" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>0.99890000000000001</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6972,7 +6993,7 @@
       </c>
       <c r="T97" s="37">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.3952645000000006E-2</v>
+        <v>8.3982780000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7104,7 +7125,7 @@
       </c>
       <c r="T100" s="35">
         <f>T99/T103</f>
-        <v>0.12406564232240774</v>
+        <v>0.12316366403292034</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7149,7 +7170,7 @@
       </c>
       <c r="T101" s="50" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3984960000</v>
+        <v>4018277000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7194,7 +7215,7 @@
       </c>
       <c r="T102" s="35">
         <f>T101/T103</f>
-        <v>0.8759343576775922</v>
+        <v>0.87683633596707966</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7239,7 +7260,7 @@
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>4549382000</v>
+        <v>4582699000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7340,7 +7361,7 @@
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>7.3953302058245338E-2</v>
+        <v>7.4052422442583365E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7430,7 +7451,7 @@
       <c r="P107" s="40"/>
       <c r="Q107" s="43">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>10178377903.590334</v>
+        <v>10157810423.341576</v>
       </c>
       <c r="R107" s="44" t="s">
         <v>148</v>
@@ -7461,7 +7482,7 @@
       </c>
       <c r="Q108" s="43">
         <f>Q107+Q106</f>
-        <v>10664490301.617092</v>
+        <v>10643922821.368334</v>
       </c>
       <c r="R108" s="44" t="s">
         <v>144</v>
@@ -7471,7 +7492,7 @@
       </c>
       <c r="T108" s="48">
         <f>T105</f>
-        <v>7.3953302058245338E-2</v>
+        <v>7.4052422442583365E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7486,7 +7507,7 @@
       </c>
       <c r="N110" s="50">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>8713286943.1516342</v>
+        <v>8695160309.249342</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7513,7 +7534,7 @@
       </c>
       <c r="N113" s="50">
         <f>N110+N111-N112</f>
-        <v>8610112943.1516342</v>
+        <v>8591986309.249342</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7531,7 +7552,7 @@
       </c>
       <c r="N115" s="53">
         <f>N113/N114</f>
-        <v>47.812650791770913</v>
+        <v>47.711992133455645</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7540,7 +7561,7 @@
       </c>
       <c r="N116" s="59" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>27.51</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7549,7 +7570,7 @@
       </c>
       <c r="N117" s="55">
         <f>N115/N116-1</f>
-        <v>0.73800984339407161</v>
+        <v>0.71997087719739183</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Box.xlsx
+++ b/Technology/Software/Box.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAF99E-0407-6142-B8ED-61F6298CE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373CA2E6-4E83-EC45-82A3-633F6C99F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2277,12 +2277,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>34.979999999999997</v>
-    <v>22.31</v>
-    <v>0.99960000000000004</v>
-    <v>0.5</v>
-    <v>1.8355E-2</v>
-    <v>0.26</v>
-    <v>9.3729999999999994E-3</v>
+    <v>24</v>
+    <v>0.99180000000000001</v>
+    <v>0.53</v>
+    <v>1.8669000000000002E-2</v>
     <v>USD</v>
     <v>Box, Inc. provides a cloud content management platform that enables organizations of all sizes to securely manage cloud content while allowing easy, secure access and sharing of this content from anywhere, on any device. The Company’s Software-as-a-Service platform, users can collaborate on content both internally and with external parties, automate content-driven business processes, develop custom applications, and implement data protection, security and compliance features to comply with legal and regulatory requirements, internal policies and industry standards and regulations. Its platform integrates with enterprise business applications, and is compatible with multiple application environments, operating systems and devices, ensuring that workers can securely access their critical business content. Its box solution offers Web, mobile and desktop applications for cloud content management on a platform for developing custom applications, as well as industry-specific capabilities.</v>
     <v>2487</v>
@@ -2290,25 +2288,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>900 Jefferson Ave, REDWOOD CITY, CA, 94063 US</v>
-    <v>28.05</v>
+    <v>29.07</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.995087777344</v>
+    <v>45099.958333378905</v>
     <v>0</v>
-    <v>27.34</v>
-    <v>4018277000</v>
+    <v>28.09</v>
+    <v>4112432000</v>
     <v>BOX, INC.</v>
     <v>BOX, INC.</v>
-    <v>27.34</v>
-    <v>682.53570000000002</v>
-    <v>27.24</v>
-    <v>27.74</v>
-    <v>28</v>
+    <v>28.24</v>
+    <v>241.18090000000001</v>
+    <v>28.39</v>
+    <v>28.92</v>
     <v>144855000</v>
     <v>BOX</v>
     <v>BOX, INC. (XNYS:BOX)</v>
-    <v>1173223</v>
-    <v>1006112</v>
+    <v>4</v>
+    <v>1668984</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2340,8 +2337,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2362,7 +2357,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2379,7 +2373,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2390,16 +2384,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2465,19 +2456,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2522,9 +2507,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2532,9 +2514,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2896,10 +2875,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
+      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3760,15 +3739,15 @@
       </c>
       <c r="S16" s="31">
         <f>T101/L3</f>
-        <v>4.0552855357997082</v>
+        <v>4.1503077081445268</v>
       </c>
       <c r="T16" s="31">
         <f>T101/L28</f>
-        <v>469.04132134936384</v>
+        <v>480.03174973736429</v>
       </c>
       <c r="U16" s="32">
         <f>T101/L106</f>
-        <v>14.053949034338517</v>
+        <v>14.383256737945844</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6904,7 +6883,7 @@
       </c>
       <c r="T95" s="57" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>0.99960000000000004</v>
+        <v>0.99180000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6993,7 +6972,7 @@
       </c>
       <c r="T97" s="37">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.3982780000000007E-2</v>
+        <v>8.3646990000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7125,7 +7104,7 @@
       </c>
       <c r="T100" s="35">
         <f>T99/T103</f>
-        <v>0.12316366403292034</v>
+        <v>0.12068411799897966</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7170,7 +7149,7 @@
       </c>
       <c r="T101" s="50" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4018277000</v>
+        <v>4112432000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7215,7 +7194,7 @@
       </c>
       <c r="T102" s="35">
         <f>T101/T103</f>
-        <v>0.87683633596707966</v>
+        <v>0.8793158820010204</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7260,7 +7239,7 @@
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>4582699000</v>
+        <v>4676854000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7361,7 +7340,7 @@
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>7.4052422442583365E-2</v>
+        <v>7.3957076142386391E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7451,7 +7430,7 @@
       <c r="P107" s="40"/>
       <c r="Q107" s="43">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>10157810423.341576</v>
+        <v>10177593255.942753</v>
       </c>
       <c r="R107" s="44" t="s">
         <v>148</v>
@@ -7482,7 +7461,7 @@
       </c>
       <c r="Q108" s="43">
         <f>Q107+Q106</f>
-        <v>10643922821.368334</v>
+        <v>10663705653.969511</v>
       </c>
       <c r="R108" s="44" t="s">
         <v>144</v>
@@ -7492,7 +7471,7 @@
       </c>
       <c r="T108" s="48">
         <f>T105</f>
-        <v>7.4052422442583365E-2</v>
+        <v>7.3957076142386391E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7507,7 +7486,7 @@
       </c>
       <c r="N110" s="50">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>8695160309.249342</v>
+        <v>8712595410.0370121</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7534,7 +7513,7 @@
       </c>
       <c r="N113" s="50">
         <f>N110+N111-N112</f>
-        <v>8591986309.249342</v>
+        <v>8609421410.0370121</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7552,7 +7531,7 @@
       </c>
       <c r="N115" s="53">
         <f>N113/N114</f>
-        <v>47.711992133455645</v>
+        <v>47.808810652676492</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7561,7 +7540,7 @@
       </c>
       <c r="N116" s="59" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>27.74</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7570,7 +7549,7 @@
       </c>
       <c r="N117" s="55">
         <f>N115/N116-1</f>
-        <v>0.71997087719739183</v>
+        <v>0.65314006406211922</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Box.xlsx
+++ b/Technology/Software/Box.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373CA2E6-4E83-EC45-82A3-633F6C99F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10913D6D-D35A-624C-9247-3674E8BA1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +855,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +869,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -937,96 +919,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,11 +1060,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>BOX</a:t>
+              <a:t>Box</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47144753494831448"/>
+          <c:y val="3.9709817681187171E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1117,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5374917053749166E-2"/>
-          <c:y val="0.12411764705882353"/>
-          <c:w val="0.85755806237558063"/>
-          <c:h val="0.75345208127756413"/>
+          <c:x val="9.7610648918469212E-2"/>
+          <c:y val="0.16656741216577972"/>
+          <c:w val="0.83050915141430937"/>
+          <c:h val="0.67804429508699837"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1174,6 +1163,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$L$3</c:f>
@@ -1218,7 +1249,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCFD-A644-BA0F-BAFE05A2AC7E}"/>
+              <c16:uniqueId val="{00000000-0868-694C-9C9E-0F281DE5089F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,11 +1258,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1269,51 +1300,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$L$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-102124000</c:v>
+                  <c:v>-112563000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-149416000</c:v>
+                  <c:v>-168557000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-137768000</c:v>
+                  <c:v>-168227000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-160707000</c:v>
+                  <c:v>-202948000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-109823000</c:v>
+                  <c:v>-151787000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-113120000</c:v>
+                  <c:v>-154960000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-86578000</c:v>
+                  <c:v>-134612000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-81176000</c:v>
+                  <c:v>-144348000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40262000</c:v>
+                  <c:v>-43433000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30932000</c:v>
+                  <c:v>-41459000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84612000</c:v>
+                  <c:v>8567000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCFD-A644-BA0F-BAFE05A2AC7E}"/>
+              <c16:uniqueId val="{00000001-0868-694C-9C9E-0F281DE5089F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,38 +1395,41 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="67000"/>
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="48000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="97000"/>
-                    <a:lumOff val="3000"/>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-              <a:tileRect/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -1361,9 +1437,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$L$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$L$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1405,7 +1523,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BCFD-A644-BA0F-BAFE05A2AC7E}"/>
+              <c16:uniqueId val="{00000002-0868-694C-9C9E-0F281DE5089F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1419,11 +1537,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1858270143"/>
-        <c:axId val="1875592623"/>
+        <c:axId val="1261919487"/>
+        <c:axId val="1302117775"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1858270143"/>
+        <c:axId val="1261919487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1569,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1463,7 +1581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875592623"/>
+        <c:crossAx val="1302117775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,9 +1589,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875592623"/>
+        <c:axId val="1302117775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-200000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1507,7 +1626,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1519,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1858270143"/>
+        <c:crossAx val="1261919487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,10 +1656,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34792009990124823"/>
-          <c:y val="0.90921098737338135"/>
-          <c:w val="0.30415980019750349"/>
-          <c:h val="5.2425841271119884E-2"/>
+          <c:x val="0.3420655862276783"/>
+          <c:y val="0.8976754243129913"/>
+          <c:w val="0.31586872273245381"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1556,7 +1675,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2120,22 +2239,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1539874</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A030500E-DBCF-3900-0FA3-C5FEA4663813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA57A843-0E73-35F4-684D-B86527585138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,6 +2273,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2874,11 +3047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2925,19 +3098,19 @@
       <c r="L1" s="8">
         <v>2023</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2024</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>2025</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>2026</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="24">
         <v>2027</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -2946,46 +3119,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -3031,37 +3204,37 @@
       <c r="L3" s="1">
         <v>990874000</v>
       </c>
-      <c r="M3" s="29">
-        <v>1056000000</v>
-      </c>
-      <c r="N3" s="29">
-        <v>1163000000</v>
-      </c>
-      <c r="O3" s="29">
-        <v>1334000000</v>
-      </c>
-      <c r="P3" s="29">
-        <v>1510000000</v>
-      </c>
-      <c r="Q3" s="29">
-        <v>1682000000</v>
+      <c r="M3" s="25">
+        <v>1052000000</v>
+      </c>
+      <c r="N3" s="25">
+        <v>1154000000</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1307000000</v>
+      </c>
+      <c r="P3" s="25">
+        <v>1513000000</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>1685000000</v>
       </c>
       <c r="R3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3106,23 +3279,23 @@
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>6.5725813776524644E-2</v>
+        <v>6.1688973572825656E-2</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10132575757575757</v>
+        <v>9.6958174904943073E-2</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14703353396388641</v>
+        <v>0.13258232235701906</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13193403298350814</v>
+        <v>0.15761285386381019</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11390728476821188</v>
+        <v>0.11368142762723066</v>
       </c>
       <c r="R4" s="17">
         <f>(L4+K4+J4)/3</f>
@@ -3137,7 +3310,7 @@
         <v>-0.65039876446779787</v>
       </c>
       <c r="U4" s="17">
-        <f>(L105+K105+J105)/3</f>
+        <f>(L106+K106+J106)/3</f>
         <v>1.7598317596887458</v>
       </c>
       <c r="V4" s="16"/>
@@ -3232,16 +3405,16 @@
         <v>738318000</v>
       </c>
       <c r="R6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="U6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3294,7 +3467,7 @@
         <v>8.6E-3</v>
       </c>
       <c r="U7" s="21">
-        <f>L106/L3</f>
+        <f>L107/L3</f>
         <v>0.28855131934029959</v>
       </c>
     </row>
@@ -3338,7 +3511,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3387,16 +3560,16 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="R9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3529,21 +3702,21 @@
         <v>457949000</v>
       </c>
       <c r="R12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3613,37 +3786,37 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3684,16 +3857,16 @@
         <v>701478000</v>
       </c>
       <c r="R15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="U15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3733,24 +3906,24 @@
       <c r="L16" s="1">
         <v>954034000</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="26">
         <f>(L35+K35+J35+I35+H35)/5</f>
         <v>3.1095773014356988E-2</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="54">
         <f>T101/L3</f>
         <v>4.1503077081445268</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="54">
         <f>T101/L28</f>
         <v>480.03174973736429</v>
       </c>
-      <c r="U16" s="32">
-        <f>T101/L106</f>
+      <c r="U16" s="56">
+        <f>T101/L107</f>
         <v>14.383256737945844</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3788,7 +3961,7 @@
         <v>2433000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3826,10 +3999,19 @@
         <v>65988000</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3866,14 +4048,41 @@
       <c r="L19" s="10">
         <v>84612000</v>
       </c>
-      <c r="R19" s="33">
+      <c r="M19" s="58">
+        <v>321600000</v>
+      </c>
+      <c r="N19" s="58">
+        <v>382400000</v>
+      </c>
+      <c r="O19" s="58">
+        <v>435900000</v>
+      </c>
+      <c r="P19" s="58">
+        <v>542500000</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>646500000</v>
+      </c>
+      <c r="R19" s="27">
         <f>L40-L56-L61</f>
         <v>-103174000</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="54">
+        <f>T101/M3</f>
+        <v>3.9091558935361217</v>
+      </c>
+      <c r="T19" s="55">
+        <f>T101/M28</f>
+        <v>18.391914132379249</v>
+      </c>
+      <c r="U19" s="56">
+        <f>T101/M106</f>
+        <v>15.113678794560823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3913,11 +4122,31 @@
         <v>-0.23173215438875361</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" ref="L20" si="9">(L19/K19)-1</f>
+        <f t="shared" ref="L20:Q20" si="9">(L19/K19)-1</f>
         <v>1.7354196301564722</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M20" s="16">
+        <f t="shared" si="9"/>
+        <v>2.8008793078995886</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.18905472636815923</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.13990585774058584</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.24455150263821968</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.19170506912442398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3954,8 +4183,34 @@
       <c r="L21" s="2">
         <v>8.5400000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M21" s="59">
+        <f>M19/M3</f>
+        <v>0.30570342205323192</v>
+      </c>
+      <c r="N21" s="59">
+        <f t="shared" ref="N21:Q21" si="10">N19/N3</f>
+        <v>0.33136915077989604</v>
+      </c>
+      <c r="O21" s="59">
+        <f t="shared" si="10"/>
+        <v>0.33351185921958681</v>
+      </c>
+      <c r="P21" s="59">
+        <f t="shared" si="10"/>
+        <v>0.3585591539986781</v>
+      </c>
+      <c r="Q21" s="59">
+        <f t="shared" si="10"/>
+        <v>0.38367952522255194</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3992,8 +4247,16 @@
       <c r="L22" s="10">
         <v>36840000</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="T22" s="63">
+        <f>L98/T101*-1</f>
+        <v>3.6613371357872909E-3</v>
+      </c>
+      <c r="U22" s="57">
+        <f>L107/T101</f>
+        <v>6.9525283335991936E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4031,7 +4294,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4069,7 +4332,7 @@
         <v>-2433000</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4107,7 +4370,7 @@
         <v>34407000</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4145,7 +4408,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4446,7 @@
         <v>7624000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4220,10 +4483,25 @@
       <c r="L28" s="11">
         <v>8567000</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="60">
+        <v>223600000</v>
+      </c>
+      <c r="N28" s="60">
+        <v>277600000</v>
+      </c>
+      <c r="O28" s="60">
+        <v>329100000</v>
+      </c>
+      <c r="P28" s="60">
+        <v>387600000</v>
+      </c>
+      <c r="Q28" s="60">
+        <v>451000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4239,35 +4517,55 @@
         <v>0.20639374178936798</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29" si="10">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="11">(F28/E28)-1</f>
         <v>-0.25208920511658162</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
+        <f t="shared" ref="G29" si="12">(G28/F28)-1</f>
         <v>2.0904293516572636E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
+        <f t="shared" ref="H29" si="13">(H28/G28)-1</f>
         <v>-0.13131130614352093</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
+        <f t="shared" ref="I29" si="14">(I28/H28)-1</f>
         <v>7.2326389920660761E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
+        <f t="shared" ref="J29" si="15">(J28/I28)-1</f>
         <v>-0.69910909745891869</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
+        <f t="shared" ref="K29" si="16">(K28/J28)-1</f>
         <v>-4.5449312734556657E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="16">(L28/K28)-1</f>
+        <f t="shared" ref="L29:P29" si="17">(L28/K28)-1</f>
         <v>-1.2066378832099183</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M29" s="16">
+        <f t="shared" si="17"/>
+        <v>25.100151745068285</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="17"/>
+        <v>0.2415026833631484</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="17"/>
+        <v>0.18551873198847257</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="17"/>
+        <v>0.1777575205104831</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>Q28/P28-1</f>
+        <v>0.16357069143446856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4304,8 +4602,28 @@
       <c r="L30" s="2">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M30" s="61">
+        <f>M28/M3</f>
+        <v>0.21254752851711026</v>
+      </c>
+      <c r="N30" s="61">
+        <f t="shared" ref="N30:Q30" si="18">N28/N3</f>
+        <v>0.24055459272097054</v>
+      </c>
+      <c r="O30" s="61">
+        <f t="shared" si="18"/>
+        <v>0.25179801071155317</v>
+      </c>
+      <c r="P30" s="61">
+        <f t="shared" si="18"/>
+        <v>0.25617977528089886</v>
+      </c>
+      <c r="Q30" s="61">
+        <f t="shared" si="18"/>
+        <v>0.26765578635014836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4342,8 +4660,23 @@
       <c r="L31" s="12">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M31" s="62">
+        <v>1.54</v>
+      </c>
+      <c r="N31" s="62">
+        <v>1.92</v>
+      </c>
+      <c r="O31" s="62">
+        <v>2.27</v>
+      </c>
+      <c r="P31" s="62">
+        <v>2.68</v>
+      </c>
+      <c r="Q31" s="62">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4459,7 +4792,7 @@
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4467,39 +4800,39 @@
         <v>-0.13204273200510108</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="19">(D34-C34)/C34</f>
         <v>-0.80906616566707612</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6472814431689162</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.1377433190366216E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" ref="G35" si="18">(G34-F34)/F34</f>
+        <f t="shared" ref="G35" si="20">(G34-F34)/F34</f>
         <v>5.0702523750872759E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" ref="H35" si="19">(H34-G34)/G34</f>
+        <f t="shared" ref="H35" si="21">(H34-G34)/G34</f>
         <v>5.5393781919182872E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" ref="I35" si="20">(I34-H34)/H34</f>
+        <f t="shared" ref="I35" si="22">(I34-H34)/H34</f>
         <v>4.5355179659146379E-2</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" ref="J35" si="21">(J34-I34)/I34</f>
+        <f t="shared" ref="J35" si="23">(J34-I34)/I34</f>
         <v>5.4729903493455689E-2</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" ref="K35" si="22">(K34-J34)/J34</f>
+        <f t="shared" ref="K35" si="24">(K34-J34)/J34</f>
         <v>0</v>
       </c>
       <c r="L35" s="23">
-        <f t="shared" ref="L35" si="23">(L34-K34)/K34</f>
+        <f t="shared" ref="L35" si="25">(L34-K34)/K34</f>
         <v>0</v>
       </c>
     </row>
@@ -4508,37 +4841,37 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -4546,37 +4879,37 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4622,31 +4955,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>7379000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>170000000</v>
@@ -4736,37 +5069,37 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4888,7 +5221,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>8081000</v>
@@ -4944,7 +5277,7 @@
         <v>24000</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1">
         <v>25115000</v>
@@ -4953,10 +5286,10 @@
         <v>24820000</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5002,37 +5335,37 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>170000000</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5040,37 +5373,37 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5154,37 +5487,37 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5271,7 +5604,7 @@
         <v>968000</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>625000</v>
@@ -5306,37 +5639,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5526,7 +5859,7 @@
         <v>14757000</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5534,37 +5867,37 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5648,37 +5981,37 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5800,7 +6133,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>15000</v>
@@ -5952,37 +6285,37 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -5990,37 +6323,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -6104,7 +6437,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>-2590000</v>
@@ -6113,28 +6446,28 @@
         <v>-1117000</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -6177,50 +6510,50 @@
     </row>
     <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:L80" si="24">B79/B3</f>
+        <f t="shared" ref="B80:L80" si="26">B79/B3</f>
         <v>0.12816980458186641</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.4603517134759077E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.14751894289410461</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.19657487182197791</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.19661569724413894</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1926040518273528</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1960860374827823</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.20967334229545115</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.2001790417374833</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.20469798657718122</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.18734168017326119</v>
       </c>
     </row>
@@ -6305,42 +6638,42 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="T83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="S83" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="T83" s="67"/>
     </row>
     <row r="84" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6379,10 +6712,10 @@
       <c r="L84" s="1">
         <v>-252000</v>
       </c>
-      <c r="S84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="T84" s="65"/>
+      <c r="S84" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="T84" s="68"/>
     </row>
     <row r="85" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6419,12 +6752,12 @@
         <v>3857000</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="T85" s="25">
+        <v>91</v>
+      </c>
+      <c r="S85" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="T85" s="32">
         <f>L17</f>
         <v>2433000</v>
       </c>
@@ -6464,12 +6797,12 @@
         <v>48728000</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="T86" s="25">
+        <v>91</v>
+      </c>
+      <c r="S86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="T86" s="32">
         <f>L56</f>
         <v>77070000</v>
       </c>
@@ -6511,10 +6844,10 @@
       <c r="L87" s="10">
         <v>297982000</v>
       </c>
-      <c r="S87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="T87" s="25">
+      <c r="S87" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="T87" s="32">
         <f>L61</f>
         <v>487352000</v>
       </c>
@@ -6556,66 +6889,66 @@
       <c r="L88" s="1">
         <v>-4433000</v>
       </c>
-      <c r="S88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="T88" s="35">
+      <c r="S88" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="T88" s="34">
         <f>T85/(T86+T87)</f>
         <v>4.3106044767921873E-3</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:L89" si="27">(-1*B88)/B3</f>
+        <v>0.33163256628739562</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="27"/>
+        <v>0.19666323112599846</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="27"/>
+        <v>0.17871465533173167</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="27"/>
+        <v>0.24095816375072679</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="27"/>
+        <v>3.7520853978249141E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="27"/>
+        <v>2.3357081609508792E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="27"/>
+        <v>2.4339810580782596E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="27"/>
+        <v>7.8303631955694963E-3</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="27"/>
+        <v>1.1744100055788367E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="27"/>
+        <v>5.3778198670527896E-3</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="27"/>
+        <v>4.4738281557493691E-3</v>
+      </c>
+      <c r="S89" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:L89" si="25">(-1*B88)/B3</f>
-        <v>0.33163256628739562</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="25"/>
-        <v>0.19666323112599846</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="25"/>
-        <v>0.17871465533173167</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="25"/>
-        <v>0.24095816375072679</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="25"/>
-        <v>3.7520853978249141E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="25"/>
-        <v>2.3357081609508792E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="25"/>
-        <v>2.4339810580782596E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="25"/>
-        <v>7.8303631955694963E-3</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="25"/>
-        <v>1.1744100055788367E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="25"/>
-        <v>5.3778198670527896E-3</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="25"/>
-        <v>4.4738281557493691E-3</v>
-      </c>
-      <c r="S89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="T89" s="25">
+      <c r="T89" s="32">
         <f>L27</f>
         <v>7624000</v>
       </c>
@@ -6625,42 +6958,42 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-458000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-59395000</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S90" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="S90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T90" s="25">
+      <c r="T90" s="32">
         <f>L25</f>
         <v>34407000</v>
       </c>
@@ -6673,28 +7006,28 @@
         <v>-125000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-112521000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1">
         <v>-170000000</v>
@@ -6702,10 +7035,10 @@
       <c r="L91" s="1">
         <v>-102088000</v>
       </c>
-      <c r="S91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="T91" s="35">
+      <c r="S91" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="T91" s="34">
         <f>T89/T90</f>
         <v>0.22158281744993752</v>
       </c>
@@ -6718,10 +7051,10 @@
         <v>20000000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>104797000</v>
@@ -6730,7 +7063,7 @@
         <v>7297000</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>1874000</v>
@@ -6742,15 +7075,15 @@
         <v>107000</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>240000000</v>
       </c>
-      <c r="S92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="T92" s="37">
+      <c r="S92" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T92" s="34">
         <f>T88*(1-T91)</f>
         <v>3.355448591912261E-3</v>
       </c>
@@ -6792,10 +7125,10 @@
       <c r="L93" s="1">
         <v>-17312000</v>
       </c>
-      <c r="S93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="T93" s="65"/>
+      <c r="S93" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="T93" s="68"/>
     </row>
     <row r="94" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6834,11 +7167,12 @@
       <c r="L94" s="10">
         <v>120600000</v>
       </c>
-      <c r="S94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="T94" s="38">
-        <v>4.095E-2</v>
+      <c r="S94" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="T94" s="35">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6878,10 +7212,10 @@
       <c r="L95" s="1">
         <v>-40353000</v>
       </c>
-      <c r="S95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="T95" s="57" cm="1">
+      <c r="S95" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="T95" s="36" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
         <v>0.99180000000000001</v>
       </c>
@@ -6891,31 +7225,31 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>184237000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1">
         <v>25373000</v>
@@ -6923,10 +7257,10 @@
       <c r="L96" s="1">
         <v>-103000</v>
       </c>
-      <c r="S96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="T96" s="38">
+      <c r="S96" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="T96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6935,31 +7269,31 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-2172000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-561571000</v>
@@ -6967,12 +7301,12 @@
       <c r="L97" s="1">
         <v>-274172000</v>
       </c>
-      <c r="S97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="T97" s="37">
+      <c r="S97" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="T97" s="34">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.3646990000000004E-2</v>
+        <v>8.3631984000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6980,31 +7314,31 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1">
         <v>-9619000</v>
@@ -7012,10 +7346,10 @@
       <c r="L98" s="1">
         <v>-15057000</v>
       </c>
-      <c r="S98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="T98" s="65"/>
+      <c r="S98" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="T98" s="68"/>
     </row>
     <row r="99" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7054,10 +7388,10 @@
       <c r="L99" s="1">
         <v>-66810000</v>
       </c>
-      <c r="S99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="T99" s="25">
+      <c r="S99" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="T99" s="32">
         <f>T86+T87</f>
         <v>564422000</v>
       </c>
@@ -7099,10 +7433,10 @@
       <c r="L100" s="10">
         <v>-396495000</v>
       </c>
-      <c r="S100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T100" s="35">
+      <c r="S100" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="T100" s="34">
         <f>T99/T103</f>
         <v>0.12068411799897966</v>
       </c>
@@ -7112,7 +7446,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>15000</v>
@@ -7144,10 +7478,10 @@
       <c r="L101" s="1">
         <v>-9935000</v>
       </c>
-      <c r="S101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="T101" s="50" cm="1">
+      <c r="S101" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="T101" s="37" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
         <v>4112432000</v>
       </c>
@@ -7189,10 +7523,10 @@
       <c r="L102" s="10">
         <v>12152000</v>
       </c>
-      <c r="S102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="T102" s="35">
+      <c r="S102" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="T102" s="34">
         <f>T101/T103</f>
         <v>0.8793158820010204</v>
       </c>
@@ -7234,10 +7568,10 @@
       <c r="L103" s="1">
         <v>416888000</v>
       </c>
-      <c r="S103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="T103" s="39">
+      <c r="S103" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="T103" s="38">
         <f>T99+T101</f>
         <v>4676854000</v>
       </c>
@@ -7279,284 +7613,331 @@
       <c r="L104" s="11">
         <v>429040000</v>
       </c>
-      <c r="S104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="T104" s="65"/>
+      <c r="S104" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="T104" s="68"/>
     </row>
     <row r="105" spans="1:20" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:K105" si="28">((B22*(1-$T$91))+B77+B88-B81)</f>
+        <v>-101107888.71450578</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="28"/>
+        <v>-157727080.24529892</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="28"/>
+        <v>-150654893.9750632</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="28"/>
+        <v>-208833188.94411021</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="28"/>
+        <v>-105743440.63707967</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="28"/>
+        <v>-149412592.8735432</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="28"/>
+        <v>-81420387.333972752</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="28"/>
+        <v>-12469401.284622326</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="28"/>
+        <v>63751820.414450541</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="28"/>
+        <v>81686446.914871976</v>
+      </c>
+      <c r="L105" s="1">
+        <f>((L22*(1-$T$91))+L77+L88-L81)</f>
+        <v>70652889.005144298</v>
+      </c>
+      <c r="M105" s="30">
+        <f>L105*(1+$T$106)</f>
+        <v>78601674.652311102</v>
+      </c>
+      <c r="N105" s="30">
+        <f t="shared" ref="N105:Q105" si="29">M105*(1+$T$106)</f>
+        <v>87444736.445213497</v>
+      </c>
+      <c r="O105" s="30">
+        <f t="shared" si="29"/>
+        <v>97282684.698474422</v>
+      </c>
+      <c r="P105" s="30">
+        <f t="shared" si="29"/>
+        <v>108227448.86505768</v>
+      </c>
+      <c r="Q105" s="30">
+        <f t="shared" si="29"/>
+        <v>120403550.99310248</v>
+      </c>
+      <c r="R105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S105" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="T105" s="40">
+        <f>(T100*T92)+(T102*T97)</f>
+        <v>7.3943881128261085E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:L106" si="30">(C107/B107)-1</f>
         <v>0.22348783954516738</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="30"/>
         <v>-1.3795440243961066E-3</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="30"/>
         <v>0.12722263961933389</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="30"/>
         <v>-0.88408310697981096</v>
       </c>
-      <c r="G105" s="15">
-        <f t="shared" ref="G105:L105" si="26">(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="30"/>
         <v>-4.0913812291331766</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" si="26"/>
+      <c r="H106" s="15">
+        <f t="shared" si="30"/>
         <v>-0.24495999999999996</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="26"/>
+      <c r="I106" s="15">
+        <f t="shared" si="30"/>
         <v>-0.17079889807162529</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="26"/>
+      <c r="J106" s="15">
+        <f t="shared" si="30"/>
         <v>4.7610529005877842</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="26"/>
+      <c r="K106" s="15">
+        <f t="shared" si="30"/>
         <v>0.24390609058244239</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="26"/>
+      <c r="L106" s="15">
+        <f t="shared" si="30"/>
         <v>0.2745362878960107</v>
       </c>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="T105" s="27">
-        <f>(T100*T92)+(T102*T97)</f>
-        <v>7.3957076142386391E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-101312000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-123954000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-123783000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-139531000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-16174000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>37752000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>31304000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>180344000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>224331000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>285918000</v>
-      </c>
-      <c r="M106" s="58">
-        <f>L106*(1+$T$106)</f>
-        <v>317936608.60614496</v>
-      </c>
-      <c r="N106" s="58">
-        <f t="shared" ref="N106:Q106" si="27">M106*(1+$T$106)</f>
-        <v>353540830.20997983</v>
-      </c>
-      <c r="O106" s="58">
-        <f t="shared" si="27"/>
-        <v>393132200.703565</v>
-      </c>
-      <c r="P106" s="58">
-        <f t="shared" si="27"/>
-        <v>437157222.0901159</v>
-      </c>
-      <c r="Q106" s="58">
-        <f t="shared" si="27"/>
-        <v>486112398.02675861</v>
-      </c>
-      <c r="R106" s="40" t="s">
-        <v>146</v>
+      <c r="M106" s="53">
+        <v>272100000</v>
+      </c>
+      <c r="N106" s="53">
+        <v>331700000</v>
+      </c>
+      <c r="O106" s="53">
+        <v>387300000</v>
+      </c>
+      <c r="P106" s="53">
+        <v>486800000</v>
+      </c>
+      <c r="Q106" s="53">
+        <v>557400000</v>
+      </c>
+      <c r="R106" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="S106" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T106" s="42">
         <f>(SUM(M4:Q4)/5)</f>
-        <v>0.11198528461357773</v>
+        <v>0.11250475046516573</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
-      <c r="Q107" s="43">
+      <c r="A107" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-101312000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-123954000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-123783000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-139531000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-16174000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>37752000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>31304000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>180344000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>224331000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>285918000</v>
+      </c>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="64">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>10177593255.942753</v>
-      </c>
-      <c r="R107" s="44" t="s">
+        <v>11673267154.739407</v>
+      </c>
+      <c r="R107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S107" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="T107" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="M108" s="64">
+        <f t="shared" ref="M108:P108" si="31">M107+M106</f>
+        <v>272100000</v>
+      </c>
+      <c r="N108" s="64">
+        <f t="shared" si="31"/>
+        <v>331700000</v>
+      </c>
+      <c r="O108" s="64">
+        <f t="shared" si="31"/>
+        <v>387300000</v>
+      </c>
+      <c r="P108" s="64">
+        <f t="shared" si="31"/>
+        <v>486800000</v>
+      </c>
+      <c r="Q108" s="64">
+        <f>Q107+Q106</f>
+        <v>12230667154.739407</v>
+      </c>
+      <c r="R108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="S108" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="T108" s="42">
+        <f>T105</f>
+        <v>7.3943881128261085E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="M109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="S107" s="45" t="s">
+      <c r="N109" s="65"/>
+    </row>
+    <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="M110" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="T107" s="46">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M108" s="43">
-        <f t="shared" ref="M108:O108" si="28">M107+M106</f>
-        <v>317936608.60614496</v>
-      </c>
-      <c r="N108" s="43">
-        <f t="shared" si="28"/>
-        <v>353540830.20997983</v>
-      </c>
-      <c r="O108" s="43">
-        <f t="shared" si="28"/>
-        <v>393132200.703565</v>
-      </c>
-      <c r="P108" s="43">
-        <f>P107+P106</f>
-        <v>437157222.0901159</v>
-      </c>
-      <c r="Q108" s="43">
-        <f>Q107+Q106</f>
-        <v>10663705653.969511</v>
-      </c>
-      <c r="R108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="S108" s="47" t="s">
+      <c r="N110" s="37">
+        <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
+        <v>9780943934.003828</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="M111" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="T108" s="48">
-        <f>T105</f>
-        <v>7.3957076142386391E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="N109" s="61"/>
-    </row>
-    <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M110" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="N110" s="50">
-        <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>8712595410.0370121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="N111" s="50">
+      <c r="N111" s="37">
         <f>L40</f>
         <v>461248000</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M112" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="N112" s="50">
+      <c r="M112" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N112" s="37">
         <f>T99</f>
         <v>564422000</v>
       </c>
     </row>
     <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M113" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="N113" s="50">
+      <c r="M113" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="N113" s="37">
         <f>N110+N111-N112</f>
-        <v>8609421410.0370121</v>
+        <v>9677769934.003828</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M114" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="N114" s="51">
+      <c r="M114" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N114" s="46">
         <f>L34*(1+(5*R16))</f>
         <v>180080225.64257261</v>
       </c>
     </row>
     <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M115" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="N115" s="53">
+      <c r="M115" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="N115" s="48">
         <f>N113/N114</f>
-        <v>47.808810652676492</v>
+        <v>53.741436070901472</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M116" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="N116" s="59" cm="1">
+      <c r="M116" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N116" s="49" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
         <v>28.92</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M117" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="N117" s="55">
+      <c r="M117" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="N117" s="50">
         <f>N115/N116-1</f>
-        <v>0.65314006406211922</v>
+        <v>0.85827925556367446</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M118" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="N118" s="56" t="str">
+      <c r="M118" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N118" s="51" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -7595,8 +7976,9 @@
     <hyperlink ref="L36" r:id="rId22" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="L74" r:id="rId23" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="M1" r:id="rId24" display="https://finbox.com/NYSE:BOX/explorer/revenue_proj" xr:uid="{A2731C4D-6180-E74E-B864-12568EA7F522}"/>
+    <hyperlink ref="R106" r:id="rId25" xr:uid="{6857DACD-76FF-8341-8C77-825E2B15C2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/Technology/Software/Box.xlsx
+++ b/Technology/Software/Box.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10913D6D-D35A-624C-9247-3674E8BA1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E44F9-13C9-C248-A89A-4C3719D75DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -997,7 +997,6 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2241,13 +2240,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1539874</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2291,20 +2290,19 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0910000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2323,7 +2321,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2451,9 +2448,11 @@
     <v>Powered by Refinitiv</v>
     <v>34.979999999999997</v>
     <v>24</v>
-    <v>0.99180000000000001</v>
-    <v>0.53</v>
-    <v>1.8669000000000002E-2</v>
+    <v>1.0263</v>
+    <v>0.12</v>
+    <v>4.5319999999999996E-3</v>
+    <v>0.12</v>
+    <v>4.5110000000000003E-3</v>
     <v>USD</v>
     <v>Box, Inc. provides a cloud content management platform that enables organizations of all sizes to securely manage cloud content while allowing easy, secure access and sharing of this content from anywhere, on any device. The Company’s Software-as-a-Service platform, users can collaborate on content both internally and with external parties, automate content-driven business processes, develop custom applications, and implement data protection, security and compliance features to comply with legal and regulatory requirements, internal policies and industry standards and regulations. Its platform integrates with enterprise business applications, and is compatible with multiple application environments, operating systems and devices, ensuring that workers can securely access their critical business content. Its box solution offers Web, mobile and desktop applications for cloud content management on a platform for developing custom applications, as well as industry-specific capabilities.</v>
     <v>2487</v>
@@ -2461,24 +2460,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>900 Jefferson Ave, REDWOOD CITY, CA, 94063 US</v>
-    <v>29.07</v>
+    <v>26.86</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.958333378905</v>
+    <v>45170.999778517966</v>
     <v>0</v>
-    <v>28.09</v>
-    <v>4112432000</v>
+    <v>26.38</v>
+    <v>3831609000</v>
     <v>BOX, INC.</v>
     <v>BOX, INC.</v>
-    <v>28.24</v>
-    <v>241.18090000000001</v>
-    <v>28.39</v>
-    <v>28.92</v>
-    <v>144855000</v>
+    <v>26.47</v>
+    <v>146.40350000000001</v>
+    <v>26.48</v>
+    <v>26.6</v>
+    <v>26.72</v>
+    <v>144045500</v>
     <v>BOX</v>
     <v>BOX, INC. (XNYS:BOX)</v>
-    <v>4</v>
-    <v>1668984</v>
+    <v>2557999</v>
+    <v>1498765</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2510,6 +2510,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2530,6 +2532,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2546,7 +2549,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2557,13 +2560,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2629,13 +2635,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2680,6 +2692,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2687,6 +2702,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3048,10 +3066,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3912,15 +3930,15 @@
       </c>
       <c r="S16" s="54">
         <f>T101/L3</f>
-        <v>4.1503077081445268</v>
+        <v>3.8668983140136888</v>
       </c>
       <c r="T16" s="54">
         <f>T101/L28</f>
-        <v>480.03174973736429</v>
+        <v>447.25213026730478</v>
       </c>
       <c r="U16" s="56">
         <f>T101/L107</f>
-        <v>14.383256737945844</v>
+        <v>13.401076532432375</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -4069,15 +4087,15 @@
       </c>
       <c r="S19" s="54">
         <f>T101/M3</f>
-        <v>3.9091558935361217</v>
+        <v>3.6422138783269964</v>
       </c>
       <c r="T19" s="55">
         <f>T101/M28</f>
-        <v>18.391914132379249</v>
+        <v>17.13599731663685</v>
       </c>
       <c r="U19" s="56">
         <f>T101/M106</f>
-        <v>15.113678794560823</v>
+        <v>14.08162072767365</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4249,11 +4267,11 @@
       </c>
       <c r="T22" s="63">
         <f>L98/T101*-1</f>
-        <v>3.6613371357872909E-3</v>
+        <v>3.9296807163778976E-3</v>
       </c>
       <c r="U22" s="57">
         <f>L107/T101</f>
-        <v>6.9525283335991936E-2</v>
+        <v>7.4620870762126298E-2</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -6670,10 +6688,10 @@
       <c r="L83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S83" s="66" t="s">
+      <c r="S83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="T83" s="67"/>
+      <c r="T83" s="66"/>
     </row>
     <row r="84" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6712,10 +6730,10 @@
       <c r="L84" s="1">
         <v>-252000</v>
       </c>
-      <c r="S84" s="68" t="s">
+      <c r="S84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="T84" s="68"/>
+      <c r="T84" s="67"/>
     </row>
     <row r="85" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7125,10 +7143,10 @@
       <c r="L93" s="1">
         <v>-17312000</v>
       </c>
-      <c r="S93" s="68" t="s">
+      <c r="S93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="T93" s="68"/>
+      <c r="T93" s="67"/>
     </row>
     <row r="94" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7172,7 +7190,7 @@
       </c>
       <c r="T94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0910000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7217,7 +7235,7 @@
       </c>
       <c r="T95" s="36" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>0.99180000000000001</v>
+        <v>1.0263</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7306,7 +7324,7 @@
       </c>
       <c r="T97" s="34">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.3631984000000006E-2</v>
+        <v>8.5133267000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7346,10 +7364,10 @@
       <c r="L98" s="1">
         <v>-15057000</v>
       </c>
-      <c r="S98" s="68" t="s">
+      <c r="S98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="T98" s="68"/>
+      <c r="T98" s="67"/>
     </row>
     <row r="99" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7438,7 +7456,7 @@
       </c>
       <c r="T100" s="34">
         <f>T99/T103</f>
-        <v>0.12068411799897966</v>
+        <v>0.12839354408556264</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7483,7 +7501,7 @@
       </c>
       <c r="T101" s="37" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4112432000</v>
+        <v>3831609000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7528,7 +7546,7 @@
       </c>
       <c r="T102" s="34">
         <f>T101/T103</f>
-        <v>0.8793158820010204</v>
+        <v>0.87160645591443742</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7573,7 +7591,7 @@
       </c>
       <c r="T103" s="38">
         <f>T99+T101</f>
-        <v>4676854000</v>
+        <v>4396031000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7613,10 +7631,10 @@
       <c r="L104" s="11">
         <v>429040000</v>
       </c>
-      <c r="S104" s="68" t="s">
+      <c r="S104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="T104" s="68"/>
+      <c r="T104" s="67"/>
     </row>
     <row r="105" spans="1:20" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7694,7 +7712,7 @@
       </c>
       <c r="T105" s="40">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>7.3943881128261085E-2</v>
+        <v>7.4633523067000065E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7809,9 +7827,9 @@
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
-      <c r="Q107" s="64">
-        <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>11673267154.739407</v>
+      <c r="Q107" s="37">
+        <f>Q105*(1+T107)/(T108-T107)</f>
+        <v>2486497676.2043371</v>
       </c>
       <c r="R107" s="29" t="s">
         <v>145</v>
@@ -7824,25 +7842,25 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M108" s="64">
-        <f t="shared" ref="M108:P108" si="31">M107+M106</f>
-        <v>272100000</v>
-      </c>
-      <c r="N108" s="64">
+      <c r="M108" s="37">
+        <f t="shared" ref="M108:P108" si="31">M107+M105</f>
+        <v>78601674.652311102</v>
+      </c>
+      <c r="N108" s="37">
         <f t="shared" si="31"/>
-        <v>331700000</v>
-      </c>
-      <c r="O108" s="64">
+        <v>87444736.445213497</v>
+      </c>
+      <c r="O108" s="37">
         <f t="shared" si="31"/>
-        <v>387300000</v>
-      </c>
-      <c r="P108" s="64">
+        <v>97282684.698474422</v>
+      </c>
+      <c r="P108" s="37">
         <f t="shared" si="31"/>
-        <v>486800000</v>
-      </c>
-      <c r="Q108" s="64">
-        <f>Q107+Q106</f>
-        <v>12230667154.739407</v>
+        <v>108227448.86505768</v>
+      </c>
+      <c r="Q108" s="37">
+        <f>Q107+Q105</f>
+        <v>2606901227.1974397</v>
       </c>
       <c r="R108" s="29" t="s">
         <v>142</v>
@@ -7852,14 +7870,14 @@
       </c>
       <c r="T108" s="42">
         <f>T105</f>
-        <v>7.3943881128261085E-2</v>
+        <v>7.4633523067000065E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="65" t="s">
+      <c r="M109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="N109" s="65"/>
+      <c r="N109" s="64"/>
     </row>
     <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="M110" s="46" t="s">
@@ -7867,7 +7885,7 @@
       </c>
       <c r="N110" s="37">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>9780943934.003828</v>
+        <v>2127361350.2970929</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7894,7 +7912,7 @@
       </c>
       <c r="N113" s="37">
         <f>N110+N111-N112</f>
-        <v>9677769934.003828</v>
+        <v>2024187350.2970929</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7912,7 +7930,7 @@
       </c>
       <c r="N115" s="48">
         <f>N113/N114</f>
-        <v>53.741436070901472</v>
+        <v>11.240475421853073</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7921,7 +7939,7 @@
       </c>
       <c r="N116" s="49" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>28.92</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7930,7 +7948,7 @@
       </c>
       <c r="N117" s="50">
         <f>N115/N116-1</f>
-        <v>0.85827925556367446</v>
+        <v>-0.57742573602056124</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7939,7 +7957,7 @@
       </c>
       <c r="N118" s="51" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
